--- a/data/cellRAW/MTscorei7.xlsx
+++ b/data/cellRAW/MTscorei7.xlsx
@@ -482,19 +482,19 @@
         <v>3038.969072164949</v>
       </c>
       <c r="E2" t="n">
-        <v>3916.380403458213</v>
+        <v>3414.081871345029</v>
       </c>
       <c r="F2" t="n">
-        <v>3630.788029925187</v>
+        <v>4380.935810810811</v>
       </c>
       <c r="G2" t="n">
-        <v>3948.518518518519</v>
+        <v>4498.456621004566</v>
       </c>
       <c r="H2" t="n">
-        <v>5624.826210826211</v>
+        <v>6247.116853932584</v>
       </c>
       <c r="I2" t="n">
-        <v>6070.251937984496</v>
+        <v>6856.784946236559</v>
       </c>
       <c r="J2" t="n">
         <v>8116.523489932886</v>
